--- a/excel/GUI Automated Testing - User registration.xlsx
+++ b/excel/GUI Automated Testing - User registration.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
-    <sheet name="GUI_UR_AN_001" sheetId="1" r:id="rId1"/>
+    <sheet name="GUI_UR_AP_001" sheetId="1" r:id="rId1"/>
     <sheet name="GUI_UR_AN_002" sheetId="2" r:id="rId2"/>
     <sheet name="GUI_UR_AN_003" sheetId="3" r:id="rId3"/>
     <sheet name="GUI_UR_AN_004" sheetId="4" r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="133">
   <si>
     <t>Step</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>jorge@masvidal</t>
+  </si>
+  <si>
+    <t>//button[@class='mat-button']</t>
   </si>
 </sst>
 </file>
@@ -766,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -1053,6 +1056,7 @@
     <hyperlink ref="D5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2944,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel/GUI Automated Testing - User registration.xlsx
+++ b/excel/GUI Automated Testing - User registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_UR_AP_001" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="GUI_UR_AN_015" sheetId="15" r:id="rId15"/>
     <sheet name="GUI_UR_AN_016" sheetId="16" r:id="rId16"/>
     <sheet name="GUI_UR_AN_017" sheetId="17" r:id="rId17"/>
+    <sheet name="Parameters" sheetId="18" r:id="rId18"/>
+    <sheet name="Objects" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="134">
   <si>
     <t>Step</t>
   </si>
@@ -123,9 +125,6 @@
     <t>https://scrum-metrics.heroukapp.com/</t>
   </si>
   <si>
-    <t>Numeric Value</t>
-  </si>
-  <si>
     <t>Maria Gonzales Perez</t>
   </si>
   <si>
@@ -204,9 +203,6 @@
     <t>screenshot</t>
   </si>
   <si>
-    <t>NumericValue</t>
-  </si>
-  <si>
     <t>navigate</t>
   </si>
   <si>
@@ -439,6 +435,15 @@
   </si>
   <si>
     <t>//button[@class='mat-button']</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Value locator</t>
   </si>
 </sst>
 </file>
@@ -483,9 +488,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -767,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +790,7 @@
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -812,11 +818,8 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -827,10 +830,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -841,16 +844,16 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -861,19 +864,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -884,19 +887,19 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -907,19 +910,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -930,19 +933,19 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -953,19 +956,19 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -976,16 +979,16 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -996,16 +999,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1030,24 +1033,24 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1062,15 +1065,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,27 +1099,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1124,134 +1124,134 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1259,19 +1259,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1279,19 +1279,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1299,19 +1299,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1319,13 +1319,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1336,24 +1336,24 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1363,15 +1363,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,27 +1397,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1425,19 +1422,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1445,19 +1442,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1465,134 +1462,134 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1600,19 +1597,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1620,19 +1617,19 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1640,13 +1637,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1657,27 +1654,27 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1687,15 +1684,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1721,27 +1718,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1749,19 +1743,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1769,134 +1763,134 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1904,19 +1898,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1924,19 +1918,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1944,18 +1938,18 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1965,15 +1959,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1999,27 +1993,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2027,19 +2018,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2047,134 +2038,134 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2182,19 +2173,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2202,19 +2193,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2222,18 +2213,18 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2243,15 +2234,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2277,27 +2268,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2305,19 +2293,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2325,134 +2313,134 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2460,19 +2448,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2480,19 +2468,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2500,18 +2488,18 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2521,15 +2509,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2555,27 +2543,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2583,19 +2568,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2603,139 +2588,139 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2745,15 +2730,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2779,27 +2764,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2807,19 +2789,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2827,116 +2809,116 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2946,15 +2928,15 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2980,27 +2962,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3008,19 +2987,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3028,119 +3007,171 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3150,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,7 +3198,7 @@
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3195,11 +3226,8 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3213,7 +3241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3224,16 +3252,16 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3244,19 +3272,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3267,19 +3295,19 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3290,19 +3318,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3313,19 +3341,19 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3336,19 +3364,19 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3359,21 +3387,21 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3387,20 +3415,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3421,27 +3449,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3449,134 +3474,134 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3584,19 +3609,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3604,19 +3629,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3624,96 +3649,96 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
         <v>38</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3721,13 +3746,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -3741,7 +3766,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -3758,13 +3783,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
         <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -3775,7 +3800,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3786,20 +3811,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3820,27 +3845,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3848,70 +3870,70 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3921,20 +3943,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3955,27 +3977,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3983,93 +4002,93 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4079,20 +4098,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4113,27 +4132,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4141,111 +4157,111 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4253,19 +4269,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4273,42 +4289,42 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4316,33 +4332,33 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4353,18 +4369,18 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4374,20 +4390,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4408,27 +4424,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4436,139 +4449,139 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
+      <c r="D7">
+        <v>5678</v>
+      </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8">
+        <v>5678</v>
+      </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4578,20 +4591,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4612,27 +4625,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4640,134 +4650,134 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4775,19 +4785,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4795,24 +4805,24 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4822,20 +4832,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4856,27 +4866,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4884,19 +4891,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4904,131 +4911,131 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5036,19 +5043,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5056,19 +5063,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5076,13 +5083,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5093,24 +5100,24 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/excel/GUI Automated Testing - User registration.xlsx
+++ b/excel/GUI Automated Testing - User registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="13" activeTab="18"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_UR_AP_001" sheetId="1" r:id="rId1"/>
@@ -776,7 +776,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I14" sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3132,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
